--- a/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 4.xlsx
+++ b/Excel Files/Challenges/Excel BI/Excel Challenges/Excel Challenge 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogwarts299-my.sharepoint.com/personal/hermione_hogwarts299_onmicrosoft_com/Documents/Documents/Learnings/Excel BI Challenges/Excel Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718DB86B-C2B2-453D-A5D1-E8550730A994}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:11_{F4BBB4B0-B7BE-415F-8214-325F4778354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0122C0B4-0D94-4B29-9CDB-695D391D0EE0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,10 +501,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
